--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDAABE-17AA-1A4B-BA40-B1F0BD458F11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FDAA23-D40A-4249-8A62-5B4CB7205AB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31760" windowHeight="17460" tabRatio="991" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2120" windowWidth="31760" windowHeight="17460" tabRatio="991" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="778">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2356,6 +2356,30 @@
   </si>
   <si>
     <t>CSV,QFX,QBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask X in OLB created user ñ passive account sensitive operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask XI in OLB created user ñ active account sensitive operations </t>
+  </si>
+  <si>
+    <t>Init mask XII with rights for user administration in OLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask IX in OLB created user non-sensitive operations </t>
+  </si>
+  <si>
+    <t>internalMCHUser_OLB.Viewer</t>
+  </si>
+  <si>
+    <t>Internal MCH user created in OLB with view access to acc sensitive operations</t>
+  </si>
+  <si>
+    <t>internalMCHUser_OLB.Creator</t>
+  </si>
+  <si>
+    <t>Internal MCH user created in OLB. Create with all access to acc sensitive operations</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2390,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2581,6 +2605,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2718,7 +2763,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2915,47 +2960,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3011,6 +3015,56 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4050,22 +4104,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4075,66 +4129,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="116">
         <v>2</v>
       </c>
-      <c r="I8" s="103"/>
+      <c r="I8" s="116"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4152,325 +4206,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="97" t="s">
+      <c r="H14" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="97"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="97"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="97" t="s">
+      <c r="H16" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="97"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="97"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="97"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="97" t="s">
+      <c r="H19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="97"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="97" t="s">
+      <c r="H20" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="97"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="97" t="s">
+      <c r="H21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="97"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="97"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="97" t="s">
+      <c r="H23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="97"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="97" t="s">
+      <c r="H24" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="97"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="95" t="s">
+      <c r="H25" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="95"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="95" t="s">
+      <c r="H26" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="123"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="95"/>
+      <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="95"/>
+      <c r="I28" s="123"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="95"/>
+      <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4483,512 +4537,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="95" t="s">
+      <c r="H31" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="95"/>
+      <c r="I31" s="123"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="95" t="s">
+      <c r="H32" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="95"/>
+      <c r="I32" s="123"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="96" t="s">
+      <c r="H33" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="96"/>
+      <c r="I33" s="125"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="96" t="s">
+      <c r="H34" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="96"/>
+      <c r="I34" s="125"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="97" t="s">
+      <c r="C35" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="97" t="s">
+      <c r="H35" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="97"/>
+      <c r="I35" s="121"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="127"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="93"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5005,6 +4960,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10657,7 +10711,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A19" sqref="A19:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11259,35 +11313,35 @@
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="92" t="s">
         <v>710</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="92" t="s">
         <v>655</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="93" t="s">
         <v>656</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="93" t="s">
         <v>657</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="92" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="59" t="s">
@@ -11296,10 +11350,10 @@
       <c r="B17" s="63" t="s">
         <v>712</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="94" t="s">
         <v>659</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="94" t="s">
         <v>713</v>
       </c>
       <c r="E17" s="59">
@@ -11313,7 +11367,7 @@
       <c r="B18" t="s">
         <v>714</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="94" t="s">
         <v>715</v>
       </c>
       <c r="E18">
@@ -11327,10 +11381,10 @@
       <c r="B19" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="94" t="s">
         <v>715</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="94" t="s">
         <v>717</v>
       </c>
       <c r="E19" s="59">
@@ -11344,7 +11398,7 @@
       <c r="B20" t="s">
         <v>718</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="94" t="s">
         <v>719</v>
       </c>
       <c r="E20">
@@ -11713,519 +11767,519 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="112" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="112" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="112" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="121" customWidth="1"/>
-    <col min="5" max="5" width="10" style="112" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="112" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="112" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="112" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="112" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="112" customWidth="1"/>
-    <col min="11" max="1025" width="7" style="112" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="121"/>
+    <col min="1" max="1" width="22.33203125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="97" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="97" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="106" customWidth="1"/>
+    <col min="5" max="5" width="10" style="97" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="97" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="97" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="97" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="97" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="97" customWidth="1"/>
+    <col min="11" max="1025" width="7" style="97" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="106"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="96" t="s">
         <v>720</v>
       </c>
-      <c r="D1" s="113"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="99" t="s">
         <v>721</v>
       </c>
-      <c r="D2" s="113"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="95" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="D3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="D4" s="101"/>
     </row>
     <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="99" t="s">
         <v>721</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="98"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="95" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="99"/>
+      <c r="D6" s="98"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="95" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="D7" s="113"/>
+      <c r="B7" s="99"/>
+      <c r="D7" s="98"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="D8" s="113"/>
+      <c r="B8" s="99"/>
+      <c r="D8" s="98"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="D9" s="113"/>
+      <c r="B9" s="99"/>
+      <c r="D9" s="98"/>
     </row>
     <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="95" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="99" t="s">
         <v>722</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="98"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="D11" s="113"/>
+      <c r="B11" s="98"/>
+      <c r="D11" s="98"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="D12" s="113"/>
+      <c r="B12" s="103"/>
+      <c r="D12" s="98"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="103"/>
+      <c r="D13" s="98"/>
     </row>
     <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="104" t="s">
         <v>723</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="104" t="s">
         <v>724</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="104" t="s">
         <v>725</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="104" t="s">
         <v>726</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="104" t="s">
         <v>727</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="104" t="s">
         <v>728</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="104" t="s">
         <v>729</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="104" t="s">
         <v>730</v>
       </c>
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="104" t="s">
         <v>731</v>
       </c>
-      <c r="K14" s="119"/>
+      <c r="K14" s="104"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="112">
-        <v>0</v>
-      </c>
-      <c r="B17" s="112" t="s">
+      <c r="A17" s="97">
+        <v>0</v>
+      </c>
+      <c r="B17" s="97" t="s">
         <v>732</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="97" t="s">
         <v>733</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="97">
         <v>371</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="97" t="s">
         <v>734</v>
       </c>
-      <c r="H17" s="112" t="s">
+      <c r="H17" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="112">
-        <v>0</v>
-      </c>
-      <c r="B18" s="112" t="s">
+      <c r="A18" s="97">
+        <v>0</v>
+      </c>
+      <c r="B18" s="97" t="s">
         <v>736</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="97" t="s">
         <v>733</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="97">
         <v>371</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="97" t="s">
         <v>737</v>
       </c>
-      <c r="H18" s="112" t="s">
+      <c r="H18" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="112">
-        <v>0</v>
-      </c>
-      <c r="B19" s="112" t="s">
+      <c r="A19" s="97">
+        <v>0</v>
+      </c>
+      <c r="B19" s="97" t="s">
         <v>736</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="97" t="s">
         <v>738</v>
       </c>
-      <c r="D19" s="112">
+      <c r="D19" s="97">
         <v>371</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="97" t="s">
         <v>739</v>
       </c>
-      <c r="H19" s="112" t="s">
+      <c r="H19" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="112">
-        <v>0</v>
-      </c>
-      <c r="B20" s="112" t="s">
+      <c r="A20" s="97">
+        <v>0</v>
+      </c>
+      <c r="B20" s="97" t="s">
         <v>736</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="97" t="s">
         <v>740</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="97">
         <v>371</v>
       </c>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="97" t="s">
         <v>741</v>
       </c>
-      <c r="H20" s="112" t="s">
+      <c r="H20" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="112">
-        <v>0</v>
-      </c>
-      <c r="B21" s="112" t="s">
+      <c r="A21" s="97">
+        <v>0</v>
+      </c>
+      <c r="B21" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="97" t="s">
         <v>740</v>
       </c>
-      <c r="D21" s="112">
+      <c r="D21" s="97">
         <v>313</v>
       </c>
-      <c r="F21" s="112" t="s">
+      <c r="F21" s="97" t="s">
         <v>741</v>
       </c>
-      <c r="H21" s="112" t="s">
+      <c r="H21" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="112">
-        <v>0</v>
-      </c>
-      <c r="B22" s="112" t="s">
+      <c r="A22" s="97">
+        <v>0</v>
+      </c>
+      <c r="B22" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="97" t="s">
         <v>733</v>
       </c>
-      <c r="D22" s="112">
+      <c r="D22" s="97">
         <v>313</v>
       </c>
-      <c r="F22" s="112" t="s">
+      <c r="F22" s="97" t="s">
         <v>737</v>
       </c>
-      <c r="H22" s="112" t="s">
+      <c r="H22" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="112">
-        <v>0</v>
-      </c>
-      <c r="B23" s="112" t="s">
+      <c r="A23" s="97">
+        <v>0</v>
+      </c>
+      <c r="B23" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="97" t="s">
         <v>738</v>
       </c>
-      <c r="D23" s="112">
+      <c r="D23" s="97">
         <v>313</v>
       </c>
-      <c r="F23" s="112" t="s">
+      <c r="F23" s="97" t="s">
         <v>743</v>
       </c>
-      <c r="H23" s="112" t="s">
+      <c r="H23" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="112">
-        <v>0</v>
-      </c>
-      <c r="B24" s="112" t="s">
+      <c r="A24" s="97">
+        <v>0</v>
+      </c>
+      <c r="B24" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="97" t="s">
         <v>740</v>
       </c>
-      <c r="D24" s="112">
+      <c r="D24" s="97">
         <v>712</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="97" t="s">
         <v>741</v>
       </c>
-      <c r="H24" s="112" t="s">
+      <c r="H24" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="112">
-        <v>0</v>
-      </c>
-      <c r="B25" s="112" t="s">
+      <c r="A25" s="97">
+        <v>0</v>
+      </c>
+      <c r="B25" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="97" t="s">
         <v>733</v>
       </c>
-      <c r="D25" s="112">
+      <c r="D25" s="97">
         <v>712</v>
       </c>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="97" t="s">
         <v>737</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="112">
-        <v>0</v>
-      </c>
-      <c r="B26" s="112" t="s">
+      <c r="A26" s="97">
+        <v>0</v>
+      </c>
+      <c r="B26" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="97" t="s">
         <v>738</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="97">
         <v>712</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="97" t="s">
         <v>743</v>
       </c>
-      <c r="H26" s="112" t="s">
+      <c r="H26" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="112">
-        <v>0</v>
-      </c>
-      <c r="B27" s="112" t="s">
+      <c r="A27" s="97">
+        <v>0</v>
+      </c>
+      <c r="B27" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="97" t="s">
         <v>733</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="97">
         <v>316</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="97" t="s">
         <v>737</v>
       </c>
-      <c r="H27" s="112" t="s">
+      <c r="H27" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="112">
-        <v>0</v>
-      </c>
-      <c r="B28" s="112" t="s">
+      <c r="A28" s="97">
+        <v>0</v>
+      </c>
+      <c r="B28" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="97" t="s">
         <v>738</v>
       </c>
-      <c r="D28" s="112">
+      <c r="D28" s="97">
         <v>316</v>
       </c>
-      <c r="F28" s="120" t="s">
+      <c r="F28" s="105" t="s">
         <v>743</v>
       </c>
-      <c r="H28" s="112" t="s">
+      <c r="H28" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="112">
-        <v>0</v>
-      </c>
-      <c r="B29" s="112" t="s">
+      <c r="A29" s="97">
+        <v>0</v>
+      </c>
+      <c r="B29" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="97" t="s">
         <v>740</v>
       </c>
-      <c r="D29" s="112">
+      <c r="D29" s="97">
         <v>316</v>
       </c>
-      <c r="F29" s="112" t="s">
+      <c r="F29" s="97" t="s">
         <v>741</v>
       </c>
-      <c r="H29" s="112" t="s">
+      <c r="H29" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="112">
-        <v>0</v>
-      </c>
-      <c r="B30" s="112" t="s">
+      <c r="A30" s="97">
+        <v>0</v>
+      </c>
+      <c r="B30" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="97" t="s">
         <v>740</v>
       </c>
-      <c r="D30" s="112">
+      <c r="D30" s="97">
         <v>321</v>
       </c>
-      <c r="F30" s="112" t="s">
+      <c r="F30" s="97" t="s">
         <v>741</v>
       </c>
-      <c r="H30" s="112" t="s">
+      <c r="H30" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="112">
-        <v>0</v>
-      </c>
-      <c r="B31" s="112" t="s">
+      <c r="A31" s="97">
+        <v>0</v>
+      </c>
+      <c r="B31" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="97" t="s">
         <v>733</v>
       </c>
-      <c r="D31" s="112">
+      <c r="D31" s="97">
         <v>321</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="97" t="s">
         <v>737</v>
       </c>
-      <c r="H31" s="112" t="s">
+      <c r="H31" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="112">
-        <v>0</v>
-      </c>
-      <c r="B32" s="112" t="s">
+      <c r="A32" s="97">
+        <v>0</v>
+      </c>
+      <c r="B32" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="97" t="s">
         <v>738</v>
       </c>
-      <c r="D32" s="112">
+      <c r="D32" s="97">
         <v>321</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="97" t="s">
         <v>743</v>
       </c>
-      <c r="H32" s="112" t="s">
+      <c r="H32" s="97" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="112">
-        <v>0</v>
-      </c>
-      <c r="B33" s="112" t="s">
+      <c r="A33" s="97">
+        <v>0</v>
+      </c>
+      <c r="B33" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="97" t="s">
         <v>738</v>
       </c>
-      <c r="D33" s="121">
+      <c r="D33" s="106">
         <v>833</v>
       </c>
-      <c r="F33" s="122" t="s">
+      <c r="F33" s="107" t="s">
         <v>744</v>
       </c>
-      <c r="H33" s="112" t="s">
+      <c r="H33" s="97" t="s">
         <v>735</v>
       </c>
     </row>
@@ -12245,360 +12299,360 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="121" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="121" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="121" customWidth="1"/>
-    <col min="4" max="4" width="89.1640625" style="121" customWidth="1"/>
-    <col min="5" max="1020" width="8.1640625" style="121" customWidth="1"/>
-    <col min="1021" max="1021" width="8.83203125" style="121" customWidth="1"/>
-    <col min="1022" max="16384" width="8.83203125" style="121"/>
+    <col min="1" max="1" width="24.83203125" style="106" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="106" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="106" customWidth="1"/>
+    <col min="4" max="4" width="89.1640625" style="106" customWidth="1"/>
+    <col min="5" max="1020" width="8.1640625" style="106" customWidth="1"/>
+    <col min="1021" max="1021" width="8.83203125" style="106" customWidth="1"/>
+    <col min="1022" max="16384" width="8.83203125" style="106"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="98" t="s">
         <v>745</v>
       </c>
-      <c r="C1" s="113"/>
+      <c r="C1" s="98"/>
     </row>
     <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="113"/>
+      <c r="C2" s="98"/>
     </row>
     <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="101" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="116"/>
+      <c r="C3" s="101"/>
     </row>
     <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="101"/>
     </row>
     <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="102" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="113"/>
+      <c r="C5" s="98"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="102" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="102" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="102" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
     </row>
     <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="98" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="113"/>
+      <c r="C10" s="98"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="113"/>
+      <c r="C12" s="98"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="98"/>
     </row>
     <row r="14" spans="1:4" ht="16">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="104" t="s">
         <v>350</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="104" t="s">
         <v>746</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="104" t="s">
         <v>747</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="104" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="108" t="s">
         <v>748</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="108" t="s">
         <v>749</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="108" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124" t="s">
+      <c r="A16" s="109"/>
+      <c r="B16" s="109" t="s">
         <v>750</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="109" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="125">
+      <c r="A17" s="110">
         <v>100</v>
       </c>
-      <c r="B17" s="125">
-        <v>0</v>
-      </c>
-      <c r="C17" s="121" t="s">
+      <c r="B17" s="110">
+        <v>0</v>
+      </c>
+      <c r="C17" s="106" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="106" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="125">
+      <c r="A18" s="110">
         <v>140</v>
       </c>
-      <c r="B18" s="125">
-        <v>0</v>
-      </c>
-      <c r="C18" s="121" t="s">
+      <c r="B18" s="110">
+        <v>0</v>
+      </c>
+      <c r="C18" s="106" t="s">
         <v>753</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="106" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="125">
+      <c r="A19" s="110">
         <v>141</v>
       </c>
-      <c r="B19" s="125">
-        <v>0</v>
-      </c>
-      <c r="C19" s="121" t="s">
+      <c r="B19" s="110">
+        <v>0</v>
+      </c>
+      <c r="C19" s="106" t="s">
         <v>755</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="106" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
-      <c r="A20" s="125">
+      <c r="A20" s="110">
         <v>146</v>
       </c>
-      <c r="B20" s="125">
-        <v>0</v>
-      </c>
-      <c r="C20" s="121" t="s">
+      <c r="B20" s="110">
+        <v>0</v>
+      </c>
+      <c r="C20" s="106" t="s">
         <v>757</v>
       </c>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="111" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="125">
+      <c r="A21" s="110">
         <v>148</v>
       </c>
-      <c r="B21" s="125">
-        <v>0</v>
-      </c>
-      <c r="C21" s="121" t="s">
+      <c r="B21" s="110">
+        <v>0</v>
+      </c>
+      <c r="C21" s="106" t="s">
         <v>759</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="106" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="125">
+      <c r="A22" s="110">
         <v>151</v>
       </c>
-      <c r="B22" s="125">
+      <c r="B22" s="110">
         <v>2</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="106" t="s">
         <v>761</v>
       </c>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="106" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
-      <c r="A23" s="125">
+      <c r="A23" s="110">
         <v>155</v>
       </c>
-      <c r="B23" s="125">
-        <v>0</v>
-      </c>
-      <c r="C23" s="121" t="s">
+      <c r="B23" s="110">
+        <v>0</v>
+      </c>
+      <c r="C23" s="106" t="s">
         <v>763</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="111" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="125">
+      <c r="A24" s="110">
         <v>160</v>
       </c>
-      <c r="B24" s="125">
-        <v>1</v>
-      </c>
-      <c r="C24" s="121" t="s">
+      <c r="B24" s="110">
+        <v>1</v>
+      </c>
+      <c r="C24" s="106" t="s">
         <v>764</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="106" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="125">
+      <c r="A25" s="110">
         <v>189</v>
       </c>
-      <c r="B25" s="125">
+      <c r="B25" s="110">
         <v>2</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="106" t="s">
         <v>766</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="106" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="125">
+      <c r="A26" s="110">
         <v>190</v>
       </c>
-      <c r="B26" s="125">
-        <v>1</v>
-      </c>
-      <c r="C26" s="121" t="s">
+      <c r="B26" s="110">
+        <v>1</v>
+      </c>
+      <c r="C26" s="106" t="s">
         <v>764</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="106" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="127"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="127"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="112"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="127"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="127"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="112"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="127"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="127"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="112"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="127"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="127"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="112"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="127"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="127"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="112"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="127"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="127"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="112"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="127"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="127"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="112"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="127"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="127"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="112"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="127"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="127"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="112"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="127"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="112"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="127"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="127"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="112"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="127"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="127"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="112"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="127"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12611,7 +12665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -13749,10 +13803,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A25" sqref="A25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14091,6 +14145,40 @@
         <v>661</v>
       </c>
     </row>
+    <row r="25" spans="1:5" ht="64">
+      <c r="A25" s="130">
+        <v>9</v>
+      </c>
+      <c r="B25" s="131" t="s">
+        <v>774</v>
+      </c>
+      <c r="C25" s="132">
+        <v>0</v>
+      </c>
+      <c r="D25" s="133">
+        <v>1</v>
+      </c>
+      <c r="E25" s="133" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="80">
+      <c r="A26" s="130">
+        <v>10</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>776</v>
+      </c>
+      <c r="C26" s="132">
+        <v>0</v>
+      </c>
+      <c r="D26" s="133">
+        <v>1</v>
+      </c>
+      <c r="E26" s="133" t="s">
+        <v>777</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14099,10 +14187,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14355,6 +14443,62 @@
         <v>662</v>
       </c>
     </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="129">
+        <v>9</v>
+      </c>
+      <c r="B25" s="129">
+        <v>0</v>
+      </c>
+      <c r="C25" s="129">
+        <v>1</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="129">
+        <v>10</v>
+      </c>
+      <c r="B26" s="129">
+        <v>0</v>
+      </c>
+      <c r="C26" s="129">
+        <v>1</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="129">
+        <v>11</v>
+      </c>
+      <c r="B27" s="129">
+        <v>0</v>
+      </c>
+      <c r="C27" s="129">
+        <v>1</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14367,10 +14511,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:G30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14537,7 +14681,7 @@
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -14560,7 +14704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -14583,7 +14727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -14606,7 +14750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -14629,7 +14773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -14649,7 +14793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -14672,7 +14816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>7</v>
       </c>
@@ -14695,7 +14839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>8</v>
       </c>
@@ -14718,7 +14862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>9</v>
       </c>
@@ -14740,8 +14884,10 @@
       <c r="G25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="N25" s="59"/>
+      <c r="O25" s="61"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>10</v>
       </c>
@@ -14763,8 +14909,10 @@
       <c r="G26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="N26" s="61"/>
+      <c r="O26" s="59"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>11</v>
       </c>
@@ -14786,8 +14934,10 @@
       <c r="G27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="N27" s="61"/>
+      <c r="O27" s="59"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>12</v>
       </c>
@@ -14809,8 +14959,10 @@
       <c r="G28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="N28" s="61"/>
+      <c r="O28" s="59"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>13</v>
       </c>
@@ -14829,8 +14981,10 @@
       <c r="G29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="N29" s="61"/>
+      <c r="O29" s="59"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>14</v>
       </c>
@@ -14851,6 +15005,250 @@
       </c>
       <c r="G30">
         <v>8</v>
+      </c>
+      <c r="N30" s="61"/>
+      <c r="O30" s="59"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" s="37">
+        <v>4</v>
+      </c>
+      <c r="C31" s="37">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="N31" s="61"/>
+      <c r="O31" s="59"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" s="37">
+        <v>4</v>
+      </c>
+      <c r="C32" s="37">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="N32" s="61"/>
+      <c r="O32" s="59"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" s="37">
+        <v>4</v>
+      </c>
+      <c r="C33" s="37">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="N33" s="61"/>
+      <c r="O33" s="59"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" s="37">
+        <v>4</v>
+      </c>
+      <c r="C34" s="37">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="N34" s="61"/>
+      <c r="O34" s="59"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35" s="37">
+        <v>4</v>
+      </c>
+      <c r="C35" s="37">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="N35" s="81"/>
+      <c r="O35" s="82"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" s="37">
+        <v>4</v>
+      </c>
+      <c r="C36" s="37">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37" s="37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38" s="37">
+        <v>9</v>
+      </c>
+      <c r="C38" s="37">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39" s="37">
+        <v>9</v>
+      </c>
+      <c r="C39" s="37">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" s="37">
+        <v>10</v>
+      </c>
+      <c r="C40" s="37">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41" s="37">
+        <v>10</v>
+      </c>
+      <c r="C41" s="37">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FDAA23-D40A-4249-8A62-5B4CB7205AB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26215E04-3CF6-CB42-BEFC-7D8259E909C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2120" windowWidth="31760" windowHeight="17460" tabRatio="991" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="66640" yWindow="5100" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="DateIntervalLimits" sheetId="22" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="23" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="780">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2380,6 +2380,12 @@
   </si>
   <si>
     <t>Internal MCH user created in OLB. Create with all access to acc sensitive operations</t>
+  </si>
+  <si>
+    <t>billPay-ipay</t>
+  </si>
+  <si>
+    <t>iPay </t>
   </si>
 </sst>
 </file>
@@ -3016,6 +3022,38 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3033,38 +3071,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4104,22 +4110,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4129,66 +4135,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8" s="130">
         <v>2</v>
       </c>
-      <c r="I8" s="116"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4206,325 +4212,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="120" t="s">
+      <c r="H13" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="120"/>
+      <c r="I13" s="127"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="121"/>
+      <c r="I14" s="124"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="121" t="s">
+      <c r="H15" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="121"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="121" t="s">
+      <c r="H16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="121"/>
+      <c r="I16" s="124"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="121" t="s">
+      <c r="H17" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="121"/>
+      <c r="I17" s="124"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="121" t="s">
+      <c r="H18" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="121"/>
+      <c r="I18" s="124"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="121" t="s">
+      <c r="H19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="121"/>
+      <c r="I19" s="124"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="121" t="s">
+      <c r="H20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="121"/>
+      <c r="I20" s="124"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="121" t="s">
+      <c r="H21" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="121"/>
+      <c r="I21" s="124"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="121" t="s">
+      <c r="H22" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="121"/>
+      <c r="I22" s="124"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="121" t="s">
+      <c r="H23" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="121"/>
+      <c r="I23" s="124"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="121" t="s">
+      <c r="H24" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="121"/>
+      <c r="I24" s="124"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="123" t="s">
+      <c r="H25" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="123"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="123" t="s">
+      <c r="H26" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="123"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="123" t="s">
+      <c r="H27" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="123"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="123" t="s">
+      <c r="H28" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="123"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="123" t="s">
+      <c r="H29" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="123"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4537,413 +4543,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="123" t="s">
+      <c r="H31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="123"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="123" t="s">
+      <c r="H32" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="123"/>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="125" t="s">
+      <c r="H33" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="125"/>
+      <c r="I33" s="123"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="125" t="s">
+      <c r="C34" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="125" t="s">
+      <c r="H34" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="125"/>
+      <c r="I34" s="123"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="121" t="s">
+      <c r="C35" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="121" t="s">
+      <c r="H35" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="121"/>
+      <c r="I35" s="124"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="127"/>
-      <c r="I51" s="127"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="127"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="127"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="126"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4960,105 +5065,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11500,10 +11506,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34371607-8EC0-144F-B222-2D8001EACAEB}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11749,6 +11755,17 @@
       </c>
       <c r="C18" s="80" t="s">
         <v>709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>704</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -14146,36 +14163,36 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="64">
-      <c r="A25" s="130">
+      <c r="A25" s="115">
         <v>9</v>
       </c>
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="116" t="s">
         <v>774</v>
       </c>
-      <c r="C25" s="132">
-        <v>0</v>
-      </c>
-      <c r="D25" s="133">
-        <v>1</v>
-      </c>
-      <c r="E25" s="133" t="s">
+      <c r="C25" s="117">
+        <v>0</v>
+      </c>
+      <c r="D25" s="118">
+        <v>1</v>
+      </c>
+      <c r="E25" s="118" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="80">
-      <c r="A26" s="130">
+      <c r="A26" s="115">
         <v>10</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="116" t="s">
         <v>776</v>
       </c>
-      <c r="C26" s="132">
-        <v>0</v>
-      </c>
-      <c r="D26" s="133">
-        <v>1</v>
-      </c>
-      <c r="E26" s="133" t="s">
+      <c r="C26" s="117">
+        <v>0</v>
+      </c>
+      <c r="D26" s="118">
+        <v>1</v>
+      </c>
+      <c r="E26" s="118" t="s">
         <v>777</v>
       </c>
     </row>
@@ -14444,44 +14461,44 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="129">
+      <c r="A25" s="114">
         <v>9</v>
       </c>
-      <c r="B25" s="129">
-        <v>0</v>
-      </c>
-      <c r="C25" s="129">
-        <v>1</v>
-      </c>
-      <c r="D25" s="129" t="s">
+      <c r="B25" s="114">
+        <v>0</v>
+      </c>
+      <c r="C25" s="114">
+        <v>1</v>
+      </c>
+      <c r="D25" s="114" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="129">
+      <c r="A26" s="114">
         <v>10</v>
       </c>
-      <c r="B26" s="129">
-        <v>0</v>
-      </c>
-      <c r="C26" s="129">
-        <v>1</v>
-      </c>
-      <c r="D26" s="129" t="s">
+      <c r="B26" s="114">
+        <v>0</v>
+      </c>
+      <c r="C26" s="114">
+        <v>1</v>
+      </c>
+      <c r="D26" s="114" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="129">
+      <c r="A27" s="114">
         <v>11</v>
       </c>
-      <c r="B27" s="129">
-        <v>0</v>
-      </c>
-      <c r="C27" s="129">
-        <v>1</v>
-      </c>
-      <c r="D27" s="129" t="s">
+      <c r="B27" s="114">
+        <v>0</v>
+      </c>
+      <c r="C27" s="114">
+        <v>1</v>
+      </c>
+      <c r="D27" s="114" t="s">
         <v>771</v>
       </c>
     </row>
@@ -14513,7 +14530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26215E04-3CF6-CB42-BEFC-7D8259E909C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948043B-DFE0-1940-9939-8498BDCC170F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66640" yWindow="5100" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="782">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2100,9 +2100,6 @@
     <t>TAG</t>
   </si>
   <si>
-    <t>LINE_OF_CREDIT</t>
-  </si>
-  <si>
     <t>MOVEMENTS.EXPORT_SUPPORTED_FORMATS</t>
   </si>
   <si>
@@ -2386,6 +2383,15 @@
   </si>
   <si>
     <t>iPay </t>
+  </si>
+  <si>
+    <t>REAL_ESTATE_LOAN</t>
+  </si>
+  <si>
+    <t>CONSUMER_LOAN</t>
+  </si>
+  <si>
+    <t>VARIABLE_LOAN</t>
   </si>
 </sst>
 </file>
@@ -9052,16 +9058,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1908475-A1A3-4D40-B882-0B509736339B}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A17" sqref="A17:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="96">
@@ -9182,41 +9188,110 @@
         <v>196</v>
       </c>
       <c r="B17" s="77">
+        <v>119</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="77">
+        <v>121</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="77">
+        <v>122</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="77">
+        <v>123</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="77">
+        <v>125</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="77">
+        <v>126</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="77">
+        <v>127</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="77">
+        <v>128</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="77">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="77">
         <v>120</v>
       </c>
-      <c r="C17" s="77" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
+      <c r="C26" t="s">
+        <v>781</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -9788,7 +9863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -9987,7 +10062,7 @@
         <v>563</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D18" s="56">
         <v>1</v>
@@ -10617,88 +10692,88 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="B48" t="s">
+        <v>768</v>
+      </c>
+      <c r="D48" s="56">
+        <v>1</v>
+      </c>
+      <c r="E48" s="56">
+        <v>1</v>
+      </c>
+      <c r="F48" s="56">
+        <v>0</v>
+      </c>
+      <c r="G48" s="56">
+        <v>1</v>
+      </c>
+      <c r="H48" s="26" t="s">
         <v>685</v>
-      </c>
-      <c r="B48" t="s">
-        <v>769</v>
-      </c>
-      <c r="D48" s="56">
-        <v>1</v>
-      </c>
-      <c r="E48" s="56">
-        <v>1</v>
-      </c>
-      <c r="F48" s="56">
-        <v>0</v>
-      </c>
-      <c r="G48" s="56">
-        <v>1</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>686</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
         <v>687</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>688</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
         <v>689</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="79" t="s">
+        <v>691</v>
+      </c>
+      <c r="B51" t="s">
         <v>692</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" s="56">
+        <v>1</v>
+      </c>
+      <c r="E51" s="56">
+        <v>0</v>
+      </c>
+      <c r="F51" s="56">
+        <v>0</v>
+      </c>
+      <c r="G51" s="56">
+        <v>1</v>
+      </c>
+      <c r="H51" s="80" t="s">
         <v>693</v>
-      </c>
-      <c r="D51" s="56">
-        <v>1</v>
-      </c>
-      <c r="E51" s="56">
-        <v>0</v>
-      </c>
-      <c r="F51" s="56">
-        <v>0</v>
-      </c>
-      <c r="G51" s="56">
-        <v>1</v>
-      </c>
-      <c r="H51" s="80" t="s">
-        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -11146,7 +11221,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C29" s="62">
         <v>1</v>
@@ -11159,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -11320,7 +11395,7 @@
     </row>
     <row r="14" spans="1:6" ht="16">
       <c r="A14" s="92" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B14" s="92" t="s">
         <v>655</v>
@@ -11351,16 +11426,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="59" t="s">
+        <v>710</v>
+      </c>
+      <c r="B17" s="63" t="s">
         <v>711</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>712</v>
       </c>
       <c r="C17" s="94" t="s">
         <v>659</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E17" s="59">
         <v>1</v>
@@ -11368,13 +11443,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="59" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B18" t="s">
+        <v>713</v>
+      </c>
+      <c r="C18" s="94" t="s">
         <v>714</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>715</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -11382,16 +11457,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>715</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>713</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>714</v>
+      </c>
+      <c r="D19" s="94" t="s">
         <v>716</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>715</v>
-      </c>
-      <c r="D19" s="94" t="s">
-        <v>717</v>
       </c>
       <c r="E19" s="59">
         <v>1</v>
@@ -11399,13 +11474,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B20" t="s">
+        <v>717</v>
+      </c>
+      <c r="C20" s="94" t="s">
         <v>718</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>719</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11506,10 +11581,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34371607-8EC0-144F-B222-2D8001EACAEB}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11532,7 +11607,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I1" s="85"/>
     </row>
@@ -11541,7 +11616,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -11586,7 +11661,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
@@ -11653,7 +11728,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
@@ -11706,10 +11781,10 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="91" t="s">
+        <v>698</v>
+      </c>
+      <c r="B14" s="91" t="s">
         <v>699</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>700</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>301</v>
@@ -11718,54 +11793,65 @@
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="91"/>
       <c r="B15" s="91" t="s">
+        <v>700</v>
+      </c>
+      <c r="C15" s="91" t="s">
         <v>701</v>
       </c>
-      <c r="C15" s="91" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18">
-      <c r="A16" s="80" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="84" t="s">
+        <v>705</v>
+      </c>
+      <c r="B16" s="84" t="s">
         <v>703</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>704</v>
-      </c>
       <c r="C16" s="84" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="84" t="s">
         <v>706</v>
       </c>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="80" t="s">
+        <v>707</v>
+      </c>
       <c r="B17" s="84" t="s">
-        <v>704</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>707</v>
+        <v>703</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="80" t="s">
-        <v>708</v>
+        <v>777</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>709</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="80" t="s">
-        <v>778</v>
+        <v>702</v>
       </c>
       <c r="B19" s="84" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" s="84" t="s">
         <v>704</v>
       </c>
-      <c r="C19" s="80" t="s">
-        <v>779</v>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="84" t="s">
+        <v>705</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -11803,7 +11889,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1" s="98"/>
     </row>
@@ -11812,7 +11898,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D2" s="98"/>
     </row>
@@ -11839,7 +11925,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D5" s="98"/>
     </row>
@@ -11876,7 +11962,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D10" s="98"/>
     </row>
@@ -11906,31 +11992,31 @@
         <v>353</v>
       </c>
       <c r="B14" s="104" t="s">
+        <v>722</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>723</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="D14" s="104" t="s">
         <v>724</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="E14" s="104" t="s">
         <v>725</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="F14" s="104" t="s">
         <v>726</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="G14" s="104" t="s">
         <v>727</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="H14" s="104" t="s">
         <v>728</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="I14" s="104" t="s">
         <v>729</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="J14" s="104" t="s">
         <v>730</v>
-      </c>
-      <c r="J14" s="104" t="s">
-        <v>731</v>
       </c>
       <c r="K14" s="104"/>
     </row>
@@ -11965,19 +12051,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="97" t="s">
+        <v>731</v>
+      </c>
+      <c r="C17" s="97" t="s">
         <v>732</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>733</v>
       </c>
       <c r="D17" s="97">
         <v>371</v>
       </c>
       <c r="F17" s="97" t="s">
+        <v>733</v>
+      </c>
+      <c r="H17" s="97" t="s">
         <v>734</v>
-      </c>
-      <c r="H17" s="97" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -11985,19 +12071,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D18" s="97">
         <v>371</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H18" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -12005,19 +12091,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D19" s="97">
         <v>371</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H19" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -12025,19 +12111,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D20" s="97">
         <v>371</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H20" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -12045,19 +12131,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D21" s="97">
         <v>313</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H21" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -12065,19 +12151,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D22" s="97">
         <v>313</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H22" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -12085,19 +12171,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D23" s="97">
         <v>313</v>
       </c>
       <c r="F23" s="97" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H23" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -12105,19 +12191,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D24" s="97">
         <v>712</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -12125,19 +12211,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D25" s="97">
         <v>712</v>
       </c>
       <c r="F25" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H25" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -12145,19 +12231,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D26" s="97">
         <v>712</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H26" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -12165,19 +12251,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D27" s="97">
         <v>316</v>
       </c>
       <c r="F27" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H27" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -12185,19 +12271,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D28" s="97">
         <v>316</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H28" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -12205,19 +12291,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D29" s="97">
         <v>316</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H29" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -12225,19 +12311,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D30" s="97">
         <v>321</v>
       </c>
       <c r="F30" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H30" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -12245,19 +12331,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D31" s="97">
         <v>321</v>
       </c>
       <c r="F31" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H31" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -12265,19 +12351,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D32" s="97">
         <v>321</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H32" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -12285,19 +12371,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D33" s="106">
         <v>833</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H33" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -12330,7 +12416,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C1" s="98"/>
     </row>
@@ -12435,10 +12521,10 @@
         <v>350</v>
       </c>
       <c r="B14" s="104" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>746</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>747</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>301</v>
@@ -12446,10 +12532,10 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="108" t="s">
+        <v>747</v>
+      </c>
+      <c r="B15" s="108" t="s">
         <v>748</v>
-      </c>
-      <c r="B15" s="108" t="s">
-        <v>749</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="108" t="s">
@@ -12459,7 +12545,7 @@
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="109"/>
       <c r="B16" s="109" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C16" s="109"/>
       <c r="D16" s="109" t="s">
@@ -12474,10 +12560,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="106" t="s">
+        <v>750</v>
+      </c>
+      <c r="D17" s="106" t="s">
         <v>751</v>
-      </c>
-      <c r="D17" s="106" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12488,10 +12574,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="106" t="s">
+        <v>752</v>
+      </c>
+      <c r="D18" s="106" t="s">
         <v>753</v>
-      </c>
-      <c r="D18" s="106" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12502,10 +12588,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="106" t="s">
+        <v>754</v>
+      </c>
+      <c r="D19" s="106" t="s">
         <v>755</v>
-      </c>
-      <c r="D19" s="106" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -12516,10 +12602,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="106" t="s">
+        <v>756</v>
+      </c>
+      <c r="D20" s="111" t="s">
         <v>757</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12530,10 +12616,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="106" t="s">
+        <v>758</v>
+      </c>
+      <c r="D21" s="106" t="s">
         <v>759</v>
-      </c>
-      <c r="D21" s="106" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12544,10 +12630,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="106" t="s">
+        <v>760</v>
+      </c>
+      <c r="D22" s="106" t="s">
         <v>761</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
@@ -12558,10 +12644,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="106" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12572,10 +12658,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="D24" s="106" t="s">
         <v>764</v>
-      </c>
-      <c r="D24" s="106" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12586,10 +12672,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="106" t="s">
+        <v>765</v>
+      </c>
+      <c r="D25" s="106" t="s">
         <v>766</v>
-      </c>
-      <c r="D25" s="106" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12600,10 +12686,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14167,16 +14253,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="116" t="s">
+        <v>773</v>
+      </c>
+      <c r="C25" s="117">
+        <v>0</v>
+      </c>
+      <c r="D25" s="118">
+        <v>1</v>
+      </c>
+      <c r="E25" s="118" t="s">
         <v>774</v>
-      </c>
-      <c r="C25" s="117">
-        <v>0</v>
-      </c>
-      <c r="D25" s="118">
-        <v>1</v>
-      </c>
-      <c r="E25" s="118" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="80">
@@ -14184,16 +14270,16 @@
         <v>10</v>
       </c>
       <c r="B26" s="116" t="s">
+        <v>775</v>
+      </c>
+      <c r="C26" s="117">
+        <v>0</v>
+      </c>
+      <c r="D26" s="118">
+        <v>1</v>
+      </c>
+      <c r="E26" s="118" t="s">
         <v>776</v>
-      </c>
-      <c r="C26" s="117">
-        <v>0</v>
-      </c>
-      <c r="D26" s="118">
-        <v>1</v>
-      </c>
-      <c r="E26" s="118" t="s">
-        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -14471,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="114" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -14485,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="114" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14499,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="114" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -14513,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948043B-DFE0-1940-9939-8498BDCC170F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6A91D-67B9-AF4D-B6AE-366647B811B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="783">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2392,6 +2392,9 @@
   </si>
   <si>
     <t>VARIABLE_LOAN</t>
+  </si>
+  <si>
+    <t>post-login-ver2019-mobile</t>
   </si>
 </sst>
 </file>
@@ -3037,29 +3040,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3077,6 +3057,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4116,22 +4119,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4141,66 +4144,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="130">
+      <c r="H8" s="121">
         <v>2</v>
       </c>
-      <c r="I8" s="130"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4218,325 +4221,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="127"/>
+      <c r="I13" s="125"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="124" t="s">
+      <c r="H14" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="124"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="124" t="s">
+      <c r="H15" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="124"/>
+      <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="124" t="s">
+      <c r="H16" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="124"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="124" t="s">
+      <c r="H17" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="124" t="s">
+      <c r="H18" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="124"/>
+      <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="124"/>
+      <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="124"/>
+      <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="124"/>
+      <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="124" t="s">
+      <c r="H22" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="126"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="124" t="s">
+      <c r="H23" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="124"/>
+      <c r="I23" s="126"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H24" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="124"/>
+      <c r="I24" s="126"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="128"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="122"/>
+      <c r="I26" s="128"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="122" t="s">
+      <c r="H27" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="122"/>
+      <c r="I27" s="128"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="122"/>
+      <c r="I28" s="128"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="122"/>
+      <c r="I29" s="128"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4549,512 +4552,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="122" t="s">
+      <c r="H31" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="122"/>
+      <c r="I31" s="128"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="122" t="s">
+      <c r="H32" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="122"/>
+      <c r="I32" s="128"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="123" t="s">
+      <c r="H33" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="123"/>
+      <c r="I33" s="130"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="123" t="s">
+      <c r="H34" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="123"/>
+      <c r="I34" s="130"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="124" t="s">
+      <c r="H35" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="124"/>
+      <c r="I35" s="126"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="131"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="131"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="131"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="119"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5071,6 +4975,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5083,11 +5086,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
@@ -5283,7 +5287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -11245,15 +11249,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="36.5"/>
     <col min="3" max="3" width="18.1640625"/>
     <col min="4" max="4" width="13.33203125"/>
@@ -11483,6 +11487,37 @@
         <v>718</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>782</v>
+      </c>
+      <c r="B21" t="s">
+        <v>713</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>714</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>782</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>659</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>712</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
     </row>
@@ -11583,7 +11618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34371607-8EC0-144F-B222-2D8001EACAEB}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -12396,7 +12431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D0BCDB-F27F-F949-A465-5E6FDB4BCE50}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6A91D-67B9-AF4D-B6AE-366647B811B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8157452B-2C19-274D-8BE2-63DB11F2DA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="785">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2118,9 +2118,6 @@
     <t>Longitude value for geo-coordinate a bank's office</t>
   </si>
   <si>
-    <t>https://suretyditloolb.nymbus.com/self_enrollment</t>
-  </si>
-  <si>
     <t>LocalBankNameShort</t>
   </si>
   <si>
@@ -2395,6 +2392,15 @@
   </si>
   <si>
     <t>post-login-ver2019-mobile</t>
+  </si>
+  <si>
+    <t>popio</t>
+  </si>
+  <si>
+    <t>POPio virtual branch</t>
+  </si>
+  <si>
+    <t>https://suretyolb.nymbus.com/self_enrollment</t>
   </si>
 </sst>
 </file>
@@ -5085,8 +5091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F6CC63-EC50-764B-A515-4684BBEB7CF2}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5267,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="E17" t="s">
         <v>676</v>
@@ -5287,7 +5293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -9195,7 +9201,7 @@
         <v>119</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9206,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9217,7 +9223,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9228,7 +9234,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9239,7 +9245,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9250,7 +9256,7 @@
         <v>126</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9261,7 +9267,7 @@
         <v>127</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9272,7 +9278,7 @@
         <v>128</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9283,7 +9289,7 @@
         <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9294,7 +9300,7 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -9867,8 +9873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10066,7 +10072,7 @@
         <v>563</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="D18" s="56">
         <v>1</v>
@@ -10699,7 +10705,7 @@
         <v>684</v>
       </c>
       <c r="B48" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D48" s="56">
         <v>1</v>
@@ -10759,25 +10765,25 @@
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="79" t="s">
+        <v>690</v>
+      </c>
+      <c r="B51" t="s">
         <v>691</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" s="56">
+        <v>1</v>
+      </c>
+      <c r="E51" s="56">
+        <v>0</v>
+      </c>
+      <c r="F51" s="56">
+        <v>0</v>
+      </c>
+      <c r="G51" s="56">
+        <v>1</v>
+      </c>
+      <c r="H51" s="80" t="s">
         <v>692</v>
-      </c>
-      <c r="D51" s="56">
-        <v>1</v>
-      </c>
-      <c r="E51" s="56">
-        <v>0</v>
-      </c>
-      <c r="F51" s="56">
-        <v>0</v>
-      </c>
-      <c r="G51" s="56">
-        <v>1</v>
-      </c>
-      <c r="H51" s="80" t="s">
-        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -10796,7 +10802,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11225,7 +11231,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C29" s="62">
         <v>1</v>
@@ -11238,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -11399,7 +11405,7 @@
     </row>
     <row r="14" spans="1:6" ht="16">
       <c r="A14" s="92" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B14" s="92" t="s">
         <v>655</v>
@@ -11430,16 +11436,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="59" t="s">
+        <v>709</v>
+      </c>
+      <c r="B17" s="63" t="s">
         <v>710</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>711</v>
       </c>
       <c r="C17" s="94" t="s">
         <v>659</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E17" s="59">
         <v>1</v>
@@ -11447,13 +11453,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="59" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B18" t="s">
+        <v>712</v>
+      </c>
+      <c r="C18" s="94" t="s">
         <v>713</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>714</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -11461,16 +11467,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>712</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>713</v>
+      </c>
+      <c r="D19" s="94" t="s">
         <v>715</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>714</v>
-      </c>
-      <c r="D19" s="94" t="s">
-        <v>716</v>
       </c>
       <c r="E19" s="59">
         <v>1</v>
@@ -11478,13 +11484,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B20" t="s">
+        <v>716</v>
+      </c>
+      <c r="C20" s="94" t="s">
         <v>717</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>718</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11492,13 +11498,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B21" t="s">
+        <v>712</v>
+      </c>
+      <c r="C21" s="94" t="s">
         <v>713</v>
-      </c>
-      <c r="C21" s="94" t="s">
-        <v>714</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -11506,16 +11512,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C22" s="94" t="s">
         <v>659</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -11616,17 +11622,17 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34371607-8EC0-144F-B222-2D8001EACAEB}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="84" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="84" customWidth="1"/>
-    <col min="3" max="3" width="19" style="84" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="84" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="84" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="84" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="84" customWidth="1"/>
@@ -11642,7 +11648,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I1" s="85"/>
     </row>
@@ -11651,7 +11657,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -11696,7 +11702,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
@@ -11763,7 +11769,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
@@ -11816,10 +11822,10 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="91" t="s">
+        <v>697</v>
+      </c>
+      <c r="B14" s="91" t="s">
         <v>698</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>699</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>301</v>
@@ -11828,65 +11834,76 @@
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="91"/>
       <c r="B15" s="91" t="s">
+        <v>699</v>
+      </c>
+      <c r="C15" s="91" t="s">
         <v>700</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="84" t="s">
+        <v>704</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>702</v>
+      </c>
+      <c r="C16" s="84" t="s">
         <v>705</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>703</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17" s="80" t="s">
+        <v>706</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>702</v>
+      </c>
+      <c r="C17" s="80" t="s">
         <v>707</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>703</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>702</v>
+      </c>
+      <c r="C18" s="80" t="s">
         <v>777</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>703</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="80" t="s">
+        <v>701</v>
+      </c>
+      <c r="B19" s="84" t="s">
         <v>702</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="C19" s="84" t="s">
         <v>703</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="84" t="s">
+        <v>704</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>702</v>
+      </c>
+      <c r="C20" s="84" t="s">
         <v>705</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>703</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>706</v>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>702</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -11924,7 +11941,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1" s="98"/>
     </row>
@@ -11933,7 +11950,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D2" s="98"/>
     </row>
@@ -11960,7 +11977,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D5" s="98"/>
     </row>
@@ -11997,7 +12014,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D10" s="98"/>
     </row>
@@ -12027,31 +12044,31 @@
         <v>353</v>
       </c>
       <c r="B14" s="104" t="s">
+        <v>721</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>722</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="D14" s="104" t="s">
         <v>723</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="E14" s="104" t="s">
         <v>724</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="F14" s="104" t="s">
         <v>725</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="G14" s="104" t="s">
         <v>726</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="H14" s="104" t="s">
         <v>727</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="I14" s="104" t="s">
         <v>728</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="J14" s="104" t="s">
         <v>729</v>
-      </c>
-      <c r="J14" s="104" t="s">
-        <v>730</v>
       </c>
       <c r="K14" s="104"/>
     </row>
@@ -12086,19 +12103,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="97" t="s">
+        <v>730</v>
+      </c>
+      <c r="C17" s="97" t="s">
         <v>731</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>732</v>
       </c>
       <c r="D17" s="97">
         <v>371</v>
       </c>
       <c r="F17" s="97" t="s">
+        <v>732</v>
+      </c>
+      <c r="H17" s="97" t="s">
         <v>733</v>
-      </c>
-      <c r="H17" s="97" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -12106,19 +12123,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D18" s="97">
         <v>371</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H18" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -12126,19 +12143,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D19" s="97">
         <v>371</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H19" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -12146,19 +12163,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D20" s="97">
         <v>371</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H20" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -12166,19 +12183,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D21" s="97">
         <v>313</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H21" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -12186,19 +12203,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D22" s="97">
         <v>313</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H22" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -12206,19 +12223,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D23" s="97">
         <v>313</v>
       </c>
       <c r="F23" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H23" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -12226,19 +12243,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D24" s="97">
         <v>712</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -12246,19 +12263,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D25" s="97">
         <v>712</v>
       </c>
       <c r="F25" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H25" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -12266,19 +12283,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D26" s="97">
         <v>712</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H26" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -12286,19 +12303,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D27" s="97">
         <v>316</v>
       </c>
       <c r="F27" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H27" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -12306,19 +12323,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D28" s="97">
         <v>316</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H28" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -12326,19 +12343,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D29" s="97">
         <v>316</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H29" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -12346,19 +12363,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D30" s="97">
         <v>321</v>
       </c>
       <c r="F30" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H30" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -12366,19 +12383,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D31" s="97">
         <v>321</v>
       </c>
       <c r="F31" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H31" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -12386,19 +12403,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D32" s="97">
         <v>321</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H32" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -12406,19 +12423,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D33" s="106">
         <v>833</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H33" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -12431,7 +12448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D0BCDB-F27F-F949-A465-5E6FDB4BCE50}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="P12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -12451,7 +12468,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C1" s="98"/>
     </row>
@@ -12556,10 +12573,10 @@
         <v>350</v>
       </c>
       <c r="B14" s="104" t="s">
+        <v>744</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>745</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>746</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>301</v>
@@ -12567,10 +12584,10 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="108" t="s">
+        <v>746</v>
+      </c>
+      <c r="B15" s="108" t="s">
         <v>747</v>
-      </c>
-      <c r="B15" s="108" t="s">
-        <v>748</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="108" t="s">
@@ -12580,7 +12597,7 @@
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="109"/>
       <c r="B16" s="109" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C16" s="109"/>
       <c r="D16" s="109" t="s">
@@ -12595,10 +12612,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="106" t="s">
+        <v>749</v>
+      </c>
+      <c r="D17" s="106" t="s">
         <v>750</v>
-      </c>
-      <c r="D17" s="106" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12609,10 +12626,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="106" t="s">
+        <v>751</v>
+      </c>
+      <c r="D18" s="106" t="s">
         <v>752</v>
-      </c>
-      <c r="D18" s="106" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12623,10 +12640,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="106" t="s">
+        <v>753</v>
+      </c>
+      <c r="D19" s="106" t="s">
         <v>754</v>
-      </c>
-      <c r="D19" s="106" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -12637,10 +12654,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="106" t="s">
+        <v>755</v>
+      </c>
+      <c r="D20" s="111" t="s">
         <v>756</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12651,10 +12668,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="106" t="s">
+        <v>757</v>
+      </c>
+      <c r="D21" s="106" t="s">
         <v>758</v>
-      </c>
-      <c r="D21" s="106" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12665,10 +12682,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="106" t="s">
+        <v>759</v>
+      </c>
+      <c r="D22" s="106" t="s">
         <v>760</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
@@ -12679,10 +12696,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="106" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12693,10 +12710,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="D24" s="106" t="s">
         <v>763</v>
-      </c>
-      <c r="D24" s="106" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12707,10 +12724,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="106" t="s">
+        <v>764</v>
+      </c>
+      <c r="D25" s="106" t="s">
         <v>765</v>
-      </c>
-      <c r="D25" s="106" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12721,10 +12738,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14288,16 +14305,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="116" t="s">
+        <v>772</v>
+      </c>
+      <c r="C25" s="117">
+        <v>0</v>
+      </c>
+      <c r="D25" s="118">
+        <v>1</v>
+      </c>
+      <c r="E25" s="118" t="s">
         <v>773</v>
-      </c>
-      <c r="C25" s="117">
-        <v>0</v>
-      </c>
-      <c r="D25" s="118">
-        <v>1</v>
-      </c>
-      <c r="E25" s="118" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="80">
@@ -14305,16 +14322,16 @@
         <v>10</v>
       </c>
       <c r="B26" s="116" t="s">
+        <v>774</v>
+      </c>
+      <c r="C26" s="117">
+        <v>0</v>
+      </c>
+      <c r="D26" s="118">
+        <v>1</v>
+      </c>
+      <c r="E26" s="118" t="s">
         <v>775</v>
-      </c>
-      <c r="C26" s="117">
-        <v>0</v>
-      </c>
-      <c r="D26" s="118">
-        <v>1</v>
-      </c>
-      <c r="E26" s="118" t="s">
-        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -14592,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="114" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -14606,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="114" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14620,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="114" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -14634,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8157452B-2C19-274D-8BE2-63DB11F2DA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1625B062-1307-934E-BE86-F4E617623029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -3046,6 +3046,29 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3063,29 +3086,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4125,22 +4125,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4150,66 +4150,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H8" s="130">
         <v>2</v>
       </c>
-      <c r="I8" s="121"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4227,325 +4227,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="125" t="s">
+      <c r="H13" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="125"/>
+      <c r="I13" s="127"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="126" t="s">
+      <c r="H14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="126"/>
+      <c r="I14" s="124"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="126"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="126"/>
+      <c r="I16" s="124"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="126"/>
+      <c r="I17" s="124"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="126" t="s">
+      <c r="H18" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="126"/>
+      <c r="I18" s="124"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="126"/>
+      <c r="I19" s="124"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="124"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="126" t="s">
+      <c r="H21" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="126"/>
+      <c r="I21" s="124"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="126" t="s">
+      <c r="H22" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="126"/>
+      <c r="I22" s="124"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="126" t="s">
+      <c r="H23" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="126"/>
+      <c r="I23" s="124"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="126" t="s">
+      <c r="H24" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="126"/>
+      <c r="I24" s="124"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="128" t="s">
+      <c r="H25" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="128"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="128" t="s">
+      <c r="H26" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="128"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="128" t="s">
+      <c r="H27" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="128"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="128" t="s">
+      <c r="H28" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="128" t="s">
+      <c r="H29" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4558,413 +4558,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="128" t="s">
+      <c r="H31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="128"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="128" t="s">
+      <c r="H32" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="128"/>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="130" t="s">
+      <c r="H33" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="130"/>
+      <c r="I33" s="123"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="130" t="s">
+      <c r="C34" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="130" t="s">
+      <c r="H34" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="130"/>
+      <c r="I34" s="123"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="126" t="s">
+      <c r="H35" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="126"/>
+      <c r="I35" s="124"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="131"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="131"/>
-      <c r="I63" s="131"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="131"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
-      <c r="F65" s="131"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="131"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4981,105 +5080,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5091,7 +5091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F6CC63-EC50-764B-A515-4684BBEB7CF2}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -10801,8 +10801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11168,7 +11168,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="59">
         <v>10</v>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1625B062-1307-934E-BE86-F4E617623029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372814E-1B9A-5547-B5E5-A82FD1562AE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="DateIntervalLimits" sheetId="22" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="23" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="785">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -3046,29 +3046,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3086,6 +3063,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4125,22 +4125,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4150,66 +4150,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="130">
+      <c r="H8" s="121">
         <v>2</v>
       </c>
-      <c r="I8" s="130"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4227,325 +4227,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="127"/>
+      <c r="I13" s="125"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="124" t="s">
+      <c r="H14" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="124"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="124" t="s">
+      <c r="H15" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="124"/>
+      <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="124" t="s">
+      <c r="H16" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="124"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="124" t="s">
+      <c r="H17" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="124" t="s">
+      <c r="H18" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="124"/>
+      <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="124"/>
+      <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="124"/>
+      <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="124"/>
+      <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="124" t="s">
+      <c r="H22" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="126"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="124" t="s">
+      <c r="H23" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="124"/>
+      <c r="I23" s="126"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H24" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="124"/>
+      <c r="I24" s="126"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="128"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="122"/>
+      <c r="I26" s="128"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="122" t="s">
+      <c r="H27" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="122"/>
+      <c r="I27" s="128"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="122"/>
+      <c r="I28" s="128"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="122"/>
+      <c r="I29" s="128"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4558,512 +4558,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="122" t="s">
+      <c r="H31" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="122"/>
+      <c r="I31" s="128"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="122" t="s">
+      <c r="H32" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="122"/>
+      <c r="I32" s="128"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="123" t="s">
+      <c r="H33" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="123"/>
+      <c r="I33" s="130"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="123" t="s">
+      <c r="H34" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="123"/>
+      <c r="I34" s="130"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="124" t="s">
+      <c r="H35" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="124"/>
+      <c r="I35" s="126"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="131"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="131"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="131"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="119"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5080,6 +4981,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10801,7 +10801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -11258,7 +11258,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A21" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11529,7 +11529,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -11622,10 +11622,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34371607-8EC0-144F-B222-2D8001EACAEB}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11904,6 +11904,17 @@
       </c>
       <c r="C21" s="80" t="s">
         <v>783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>702</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -12448,7 +12459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D0BCDB-F27F-F949-A465-5E6FDB4BCE50}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372814E-1B9A-5547-B5E5-A82FD1562AE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187BDA0-A826-0347-99A8-F08A64C34FEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="DateIntervalLimits" sheetId="22" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="23" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="791">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2401,6 +2401,24 @@
   </si>
   <si>
     <t>https://suretyolb.nymbus.com/self_enrollment</t>
+  </si>
+  <si>
+    <t>DAILYLIMIT</t>
+  </si>
+  <si>
+    <t>WEEKLYLIMIT</t>
+  </si>
+  <si>
+    <t>MONTHLYLIMIT</t>
+  </si>
+  <si>
+    <t>EN = daily limit</t>
+  </si>
+  <si>
+    <t>EN = weekly limit</t>
+  </si>
+  <si>
+    <t>EN = monthly limit</t>
   </si>
 </sst>
 </file>
@@ -2411,7 +2429,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2647,6 +2665,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2784,7 +2809,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3046,6 +3071,29 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3064,28 +3112,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4125,22 +4166,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4150,66 +4191,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H8" s="130">
         <v>2</v>
       </c>
-      <c r="I8" s="121"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4227,325 +4268,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="125" t="s">
+      <c r="H13" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="125"/>
+      <c r="I13" s="127"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="126" t="s">
+      <c r="H14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="126"/>
+      <c r="I14" s="124"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="126"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="126"/>
+      <c r="I16" s="124"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="126"/>
+      <c r="I17" s="124"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="126" t="s">
+      <c r="H18" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="126"/>
+      <c r="I18" s="124"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="126"/>
+      <c r="I19" s="124"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="124"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="126" t="s">
+      <c r="H21" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="126"/>
+      <c r="I21" s="124"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="126" t="s">
+      <c r="H22" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="126"/>
+      <c r="I22" s="124"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="126" t="s">
+      <c r="H23" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="126"/>
+      <c r="I23" s="124"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="126" t="s">
+      <c r="H24" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="126"/>
+      <c r="I24" s="124"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="128" t="s">
+      <c r="H25" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="128"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="128" t="s">
+      <c r="H26" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="128"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="128" t="s">
+      <c r="H27" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="128"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="128" t="s">
+      <c r="H28" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="128" t="s">
+      <c r="H29" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4558,413 +4599,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="128" t="s">
+      <c r="H31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="128"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="128" t="s">
+      <c r="H32" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="128"/>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="130" t="s">
+      <c r="H33" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="130"/>
+      <c r="I33" s="123"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="130" t="s">
+      <c r="C34" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="130" t="s">
+      <c r="H34" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="130"/>
+      <c r="I34" s="123"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="126" t="s">
+      <c r="H35" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="126"/>
+      <c r="I35" s="124"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="131"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="131"/>
-      <c r="I63" s="131"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="131"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
-      <c r="F65" s="131"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="131"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4981,105 +5121,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5089,104 +5130,133 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F6CC63-EC50-764B-A515-4684BBEB7CF2}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="112">
+      <c r="A1" s="134" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="41" t="s">
         <v>667</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" ht="13" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="32">
+      <c r="A2" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="13" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="134" t="s">
         <v>282</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" ht="13" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+    </row>
+    <row r="4" spans="1:8" ht="48">
+      <c r="A4" s="134" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="135" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" ht="13" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+    </row>
+    <row r="5" spans="1:8" ht="32">
+      <c r="A5" s="134" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="136" t="s">
         <v>668</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="13" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="134" t="s">
         <v>287</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="13" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="134" t="s">
         <v>288</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="13" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="134" t="s">
         <v>290</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="13" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="134" t="s">
         <v>291</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="13" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="134" t="s">
         <v>292</v>
       </c>
       <c r="B10" t="s">
@@ -5194,75 +5264,108 @@
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" ht="13" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="13" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="134" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="134" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" ht="13" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="32">
+      <c r="A14" s="137" t="s">
         <v>666</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="137" t="s">
         <v>670</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="137" t="s">
         <v>350</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="138" t="s">
         <v>671</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="138" t="s">
+        <v>785</v>
+      </c>
+      <c r="F14" s="138" t="s">
+        <v>786</v>
+      </c>
+      <c r="G14" s="138" t="s">
+        <v>787</v>
+      </c>
+      <c r="H14" s="137" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:8" ht="80">
+      <c r="A15" s="137"/>
+      <c r="B15" s="137" t="s">
         <v>673</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="137"/>
+      <c r="D15" s="138" t="s">
         <v>674</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="138" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="138" t="s">
+        <v>789</v>
+      </c>
+      <c r="G15" s="138" t="s">
+        <v>790</v>
+      </c>
+      <c r="H15" s="138" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="13" customHeight="1">
+    <row r="16" spans="1:8">
+      <c r="A16" s="139"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5275,7 +5378,16 @@
       <c r="D17">
         <v>500</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>5000</v>
+      </c>
+      <c r="H17" t="s">
         <v>676</v>
       </c>
     </row>
@@ -12459,7 +12571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D0BCDB-F27F-F949-A465-5E6FDB4BCE50}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187BDA0-A826-0347-99A8-F08A64C34FEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D019F-36B1-EF42-94D7-6E8AB28EAE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="DateIntervalLimits" sheetId="22" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="23" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="794">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1317,12 +1317,6 @@
     <t>my 90 Day</t>
   </si>
   <si>
-    <t>my 9 Month</t>
-  </si>
-  <si>
-    <t>my 18 Month</t>
-  </si>
-  <si>
     <t>my 60 Month Brokered CD</t>
   </si>
   <si>
@@ -1368,36 +1362,6 @@
     <t>my 15 Month</t>
   </si>
   <si>
-    <t>my (01) Commercial</t>
-  </si>
-  <si>
-    <t>my (02) Comm Line of Credit</t>
-  </si>
-  <si>
-    <t>my (03) Commcial Construction</t>
-  </si>
-  <si>
-    <t>my (04) Commcial R/E</t>
-  </si>
-  <si>
-    <t>my (05) Commercial Tax-Free</t>
-  </si>
-  <si>
-    <t>my (20) Consumer Loans</t>
-  </si>
-  <si>
-    <t>my (80) Mortgage LNS - Fixed</t>
-  </si>
-  <si>
-    <t>my (81) Mortgage LNS - YR 1</t>
-  </si>
-  <si>
-    <t>my (83) Mortgage LNS - YR 3</t>
-  </si>
-  <si>
-    <t>my (85) Mortgage LNS - YR 5</t>
-  </si>
-  <si>
     <t>my Recurring payment</t>
   </si>
   <si>
@@ -1794,9 +1758,6 @@
     <t>LocalBankCodeAlpha</t>
   </si>
   <si>
-    <t>NYMBUS</t>
-  </si>
-  <si>
     <t>Alphanumerical (GEMINI) local bank code</t>
   </si>
   <si>
@@ -2419,6 +2380,54 @@
   </si>
   <si>
     <t>EN = monthly limit</t>
+  </si>
+  <si>
+    <t>Best Interest Saving</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>my 18 Month CD</t>
+  </si>
+  <si>
+    <t>my Consumer Loan</t>
+  </si>
+  <si>
+    <t>my Commercial</t>
+  </si>
+  <si>
+    <t>my Comm Line of Credit</t>
+  </si>
+  <si>
+    <t>my Commercial Tax-Free</t>
+  </si>
+  <si>
+    <t>my Mortgage LNS - Fixed</t>
+  </si>
+  <si>
+    <t>my Mortgage LNS - YR 1</t>
+  </si>
+  <si>
+    <t>my Mortgage LNS - YR 3</t>
+  </si>
+  <si>
+    <t>my Mortgage LNS - YR 5</t>
+  </si>
+  <si>
+    <t>my Commercial Construction</t>
+  </si>
+  <si>
+    <t>my Commercial R/E</t>
+  </si>
+  <si>
+    <t>my Best Interest Saving</t>
+  </si>
+  <si>
+    <t>Surety Bank</t>
+  </si>
+  <si>
+    <t>my 9 Month CD</t>
   </si>
 </sst>
 </file>
@@ -3071,6 +3080,22 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3111,22 +3136,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4166,22 +4175,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4191,66 +4200,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="130">
+      <c r="H8" s="136">
         <v>2</v>
       </c>
-      <c r="I8" s="130"/>
+      <c r="I8" s="136"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4268,325 +4277,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="127"/>
+      <c r="I13" s="133"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="124" t="s">
+      <c r="H14" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="124"/>
+      <c r="I14" s="130"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="124" t="s">
+      <c r="H15" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="124"/>
+      <c r="I15" s="130"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="124" t="s">
+      <c r="H16" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="124"/>
+      <c r="I16" s="130"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="124" t="s">
+      <c r="H17" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="130"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="124" t="s">
+      <c r="H18" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="124"/>
+      <c r="I18" s="130"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="124"/>
+      <c r="I19" s="130"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="124"/>
+      <c r="I20" s="130"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="124"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="124" t="s">
+      <c r="H22" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="130"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="124" t="s">
+      <c r="H23" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="124"/>
+      <c r="I23" s="130"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H24" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="124"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="128"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="122"/>
+      <c r="I26" s="128"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="122" t="s">
+      <c r="H27" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="122"/>
+      <c r="I27" s="128"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="122"/>
+      <c r="I28" s="128"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="122"/>
+      <c r="I29" s="128"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4599,410 +4608,410 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="122" t="s">
+      <c r="H31" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="122"/>
+      <c r="I31" s="128"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="122" t="s">
+      <c r="H32" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="122"/>
+      <c r="I32" s="128"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="123" t="s">
+      <c r="H33" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="123"/>
+      <c r="I33" s="129"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="123" t="s">
+      <c r="H34" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="123"/>
+      <c r="I34" s="129"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="124" t="s">
+      <c r="H35" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="124"/>
+      <c r="I35" s="130"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="119"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="115">
@@ -5132,7 +5141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F6CC63-EC50-764B-A515-4684BBEB7CF2}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5146,12 +5155,12 @@
     <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="112">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:8" ht="64">
+      <c r="A1" s="119" t="s">
         <v>279</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -5160,11 +5169,11 @@
       <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="32">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="119" t="s">
         <v>281</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -5173,46 +5182,46 @@
       <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="16">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="119" t="s">
         <v>282</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-    </row>
-    <row r="4" spans="1:8" ht="48">
-      <c r="A4" s="134" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
     </row>
     <row r="5" spans="1:8" ht="32">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
+      <c r="B5" s="121" t="s">
+        <v>655</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="119" t="s">
         <v>287</v>
       </c>
       <c r="B6" s="22"/>
@@ -5223,7 +5232,7 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="119" t="s">
         <v>288</v>
       </c>
       <c r="B7" s="22"/>
@@ -5234,7 +5243,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="119" t="s">
         <v>290</v>
       </c>
       <c r="B8" s="22"/>
@@ -5245,7 +5254,7 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="119" t="s">
         <v>291</v>
       </c>
       <c r="B9" s="22"/>
@@ -5256,11 +5265,11 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="119" t="s">
         <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -5269,11 +5278,11 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="119" t="s">
         <v>294</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -5282,7 +5291,7 @@
       <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="119" t="s">
         <v>295</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -5295,7 +5304,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="119" t="s">
         <v>297</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -5308,62 +5317,62 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="137" t="s">
-        <v>666</v>
-      </c>
-      <c r="B14" s="137" t="s">
-        <v>670</v>
-      </c>
-      <c r="C14" s="137" t="s">
+      <c r="A14" s="122" t="s">
+        <v>653</v>
+      </c>
+      <c r="B14" s="122" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" s="122" t="s">
         <v>350</v>
       </c>
-      <c r="D14" s="138" t="s">
-        <v>671</v>
-      </c>
-      <c r="E14" s="138" t="s">
-        <v>785</v>
-      </c>
-      <c r="F14" s="138" t="s">
-        <v>786</v>
-      </c>
-      <c r="G14" s="138" t="s">
-        <v>787</v>
-      </c>
-      <c r="H14" s="137" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="80">
-      <c r="A15" s="137"/>
-      <c r="B15" s="137" t="s">
-        <v>673</v>
-      </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138" t="s">
-        <v>674</v>
-      </c>
-      <c r="E15" s="138" t="s">
-        <v>788</v>
-      </c>
-      <c r="F15" s="138" t="s">
-        <v>789</v>
-      </c>
-      <c r="G15" s="138" t="s">
-        <v>790</v>
-      </c>
-      <c r="H15" s="138" t="s">
-        <v>675</v>
+      <c r="D14" s="123" t="s">
+        <v>658</v>
+      </c>
+      <c r="E14" s="123" t="s">
+        <v>772</v>
+      </c>
+      <c r="F14" s="123" t="s">
+        <v>773</v>
+      </c>
+      <c r="G14" s="123" t="s">
+        <v>774</v>
+      </c>
+      <c r="H14" s="122" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="48">
+      <c r="A15" s="122"/>
+      <c r="B15" s="122" t="s">
+        <v>660</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123" t="s">
+        <v>661</v>
+      </c>
+      <c r="E15" s="123" t="s">
+        <v>775</v>
+      </c>
+      <c r="F15" s="123" t="s">
+        <v>776</v>
+      </c>
+      <c r="G15" s="123" t="s">
+        <v>777</v>
+      </c>
+      <c r="H15" s="123" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="139"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
@@ -5388,7 +5397,7 @@
         <v>5000</v>
       </c>
       <c r="H17" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -5403,10 +5412,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5743,6 +5752,14 @@
         <v>127</v>
       </c>
     </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="45">
+        <v>1</v>
+      </c>
+      <c r="B43" s="47">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5753,8 +5770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6342,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>423</v>
+        <v>793</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6376,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>424</v>
+        <v>780</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6410,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6444,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6478,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6512,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6546,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6580,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6614,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6648,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6682,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -6716,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6750,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6784,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6818,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6852,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6886,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6920,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>440</v>
+        <v>782</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -6954,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>441</v>
+        <v>783</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6988,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>442</v>
+        <v>789</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -7022,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>443</v>
+        <v>790</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -7056,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>444</v>
+        <v>784</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -7090,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>445</v>
+        <v>781</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -7124,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>446</v>
+        <v>785</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -7158,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>447</v>
+        <v>786</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -7192,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>448</v>
+        <v>787</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -7226,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>449</v>
+        <v>788</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -7260,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -7294,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -7305,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7316,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7327,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7338,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7349,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7360,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7371,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7382,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7393,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -7404,10 +7421,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7424,7 +7441,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -7524,7 +7541,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="1"/>
@@ -7567,7 +7584,7 @@
     </row>
     <row r="14" spans="1:6" ht="16">
       <c r="A14" s="31" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>420</v>
@@ -7607,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7621,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -7635,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7649,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7663,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7677,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7691,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -7705,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7719,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7733,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -7747,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -7761,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -7775,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7789,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -7803,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7817,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7831,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7845,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -7859,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -7870,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
@@ -7881,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
@@ -7892,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
@@ -7903,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
@@ -7914,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
@@ -7925,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
@@ -7936,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
@@ -7947,7 +7964,18 @@
         <v>1</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>489</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="47">
+        <v>128</v>
+      </c>
+      <c r="B44" s="40">
+        <v>1</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -7960,8 +7988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7981,7 +8009,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8205,31 +8233,31 @@
         <v>419</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>420</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>301</v>
@@ -8274,7 +8302,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -8288,7 +8316,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="52" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -8298,7 +8326,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -8312,7 +8340,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="52" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -8322,7 +8350,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -8336,7 +8364,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="52" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -8346,7 +8374,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -8360,7 +8388,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="52" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -8370,7 +8398,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -8384,7 +8412,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="52" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -8394,7 +8422,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -8408,7 +8436,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="52" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -8418,7 +8446,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
@@ -8432,7 +8460,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="52" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -8442,7 +8470,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
@@ -8456,7 +8484,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="52" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -8466,7 +8494,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -8480,7 +8508,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="52" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -8490,7 +8518,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
@@ -8504,7 +8532,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="52" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -8514,7 +8542,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
@@ -8528,7 +8556,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="52" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -8538,7 +8566,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
@@ -8552,7 +8580,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="52" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -8562,7 +8590,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
@@ -8576,7 +8604,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="52" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -8586,7 +8614,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
@@ -8600,7 +8628,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="52" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="L30" s="1"/>
     </row>
@@ -8610,7 +8638,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -8624,7 +8652,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="52" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -8634,7 +8662,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
@@ -8648,7 +8676,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="52" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L32" s="1"/>
     </row>
@@ -8658,7 +8686,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
@@ -8672,7 +8700,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="52" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L33" s="1"/>
     </row>
@@ -8682,7 +8710,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
@@ -8696,7 +8724,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="52" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="L34" s="1"/>
     </row>
@@ -8706,7 +8734,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
@@ -8720,7 +8748,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="52" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L35" s="1"/>
     </row>
@@ -8730,7 +8758,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
@@ -8744,7 +8772,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="52" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="L36" s="1"/>
     </row>
@@ -8754,7 +8782,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -8768,7 +8796,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="52" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="L37" s="1"/>
     </row>
@@ -8778,7 +8806,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
@@ -8792,7 +8820,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="52" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="L38" s="1"/>
     </row>
@@ -8802,7 +8830,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
@@ -8816,7 +8844,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="52" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="L39" s="1"/>
     </row>
@@ -8826,7 +8854,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
@@ -8840,7 +8868,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="52" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="L40" s="1"/>
     </row>
@@ -8850,7 +8878,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
@@ -8864,7 +8892,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="52" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="L41" s="1"/>
     </row>
@@ -8874,7 +8902,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
@@ -8888,7 +8916,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="52" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -8898,7 +8926,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
@@ -8912,7 +8940,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="52" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="L43" s="1"/>
     </row>
@@ -8922,7 +8950,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
@@ -8936,7 +8964,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="52" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="L44" s="1"/>
     </row>
@@ -8946,7 +8974,7 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="46" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
@@ -8960,7 +8988,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="52" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="L45" s="1"/>
     </row>
@@ -8969,16 +8997,16 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" s="54" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="K46" s="52" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -8987,7 +9015,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="48" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
@@ -9001,7 +9029,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="52" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="L47" s="1"/>
     </row>
@@ -9011,7 +9039,7 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="46" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
@@ -9025,7 +9053,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="52" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="L48" s="1"/>
     </row>
@@ -9035,7 +9063,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="46" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -9049,7 +9077,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="52" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="L49" s="1"/>
     </row>
@@ -9058,16 +9086,16 @@
         <v>150</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="K50" s="52" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -9075,16 +9103,16 @@
         <v>151</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="K51" s="52" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9092,16 +9120,16 @@
         <v>152</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="K52" s="52" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9109,7 +9137,7 @@
         <v>153</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -9118,7 +9146,7 @@
         <v>1000000035</v>
       </c>
       <c r="K53" s="52" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -9126,7 +9154,7 @@
         <v>154</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -9135,7 +9163,7 @@
         <v>1000000037</v>
       </c>
       <c r="K54" s="52" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -9143,7 +9171,7 @@
         <v>155</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -9152,7 +9180,7 @@
         <v>1000000038</v>
       </c>
       <c r="K55" s="52" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -9160,7 +9188,7 @@
         <v>156</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -9169,7 +9197,7 @@
         <v>1000000039</v>
       </c>
       <c r="K56" s="52" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -9197,7 +9225,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48">
@@ -9205,7 +9233,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -9229,7 +9257,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9261,7 +9289,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
@@ -9286,13 +9314,13 @@
     </row>
     <row r="14" spans="1:3" ht="32">
       <c r="A14" s="72" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9313,7 +9341,7 @@
         <v>119</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9324,7 +9352,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9335,7 +9363,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9346,7 +9374,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9357,7 +9385,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9368,7 +9396,7 @@
         <v>126</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9379,7 +9407,7 @@
         <v>127</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9390,7 +9418,7 @@
         <v>128</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9401,7 +9429,7 @@
         <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9412,7 +9440,7 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -9433,7 +9461,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9452,7 +9480,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9464,7 +9492,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9500,7 +9528,7 @@
         <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -9552,7 +9580,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9596,7 +9624,7 @@
         <v>419</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -9985,8 +10013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10006,7 +10034,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -10015,7 +10043,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -10080,7 +10108,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="H10" s="22"/>
     </row>
@@ -10109,25 +10137,25 @@
     </row>
     <row r="14" spans="1:9" ht="16">
       <c r="A14" s="30" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>301</v>
@@ -10158,10 +10186,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B17" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D17" s="56">
         <v>1</v>
@@ -10176,15 +10204,15 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="D18" s="56">
         <v>1</v>
@@ -10199,12 +10227,12 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D19" s="56">
         <v>1</v>
@@ -10219,12 +10247,12 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D20" s="56">
         <v>1</v>
@@ -10239,12 +10267,12 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D21" s="56">
         <v>1</v>
@@ -10259,12 +10287,12 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D22" s="56">
         <v>1</v>
@@ -10279,12 +10307,12 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D23" s="56">
         <v>1</v>
@@ -10299,12 +10327,12 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D24" s="56">
         <v>1</v>
@@ -10319,12 +10347,12 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D25" s="56">
         <v>1</v>
@@ -10339,15 +10367,15 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B26" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D26" s="56">
         <v>1</v>
@@ -10364,10 +10392,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B27" t="s">
-        <v>582</v>
+        <v>792</v>
       </c>
       <c r="D27" s="56">
         <v>1</v>
@@ -10382,15 +10410,15 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="B28" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="D28" s="56">
         <v>1</v>
@@ -10407,10 +10435,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B29" t="s">
-        <v>582</v>
+        <v>792</v>
       </c>
       <c r="D29" s="56">
         <v>1</v>
@@ -10427,10 +10455,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="D30" s="56">
         <v>1</v>
@@ -10447,10 +10475,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="26" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D31" s="56">
         <v>1</v>
@@ -10465,15 +10493,15 @@
         <v>1</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="26" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="D32" s="56">
         <v>1</v>
@@ -10488,15 +10516,15 @@
         <v>1</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="D33" s="56">
         <v>1</v>
@@ -10511,15 +10539,15 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B34" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="D34" s="56">
         <v>1</v>
@@ -10536,7 +10564,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D35" s="56">
         <v>1</v>
@@ -10553,10 +10581,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B36" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D36" s="56">
         <v>1</v>
@@ -10573,7 +10601,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B37">
         <v>32720</v>
@@ -10593,10 +10621,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B38" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="D38" s="56">
         <v>1</v>
@@ -10613,10 +10641,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B39" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="D39" s="56">
         <v>1</v>
@@ -10633,7 +10661,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="D40" s="56">
         <v>1</v>
@@ -10648,12 +10676,12 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="26" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="B41">
         <v>263187320</v>
@@ -10671,15 +10699,15 @@
         <v>1</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="26" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B42" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="D42" s="56">
         <v>1</v>
@@ -10694,12 +10722,12 @@
         <v>1</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="26" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B43">
         <v>18193</v>
@@ -10717,15 +10745,15 @@
         <v>1</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B44" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D44" s="56">
         <v>1</v>
@@ -10740,15 +10768,15 @@
         <v>1</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="26" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B45" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="D45" s="56">
         <v>1</v>
@@ -10763,15 +10791,15 @@
         <v>1</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="26" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="D46" s="56">
         <v>1</v>
@@ -10786,15 +10814,15 @@
         <v>1</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D47" s="56">
         <v>1</v>
@@ -10809,15 +10837,15 @@
         <v>1</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="B48" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="D48" s="56">
         <v>1</v>
@@ -10832,12 +10860,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -10852,12 +10880,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -10872,15 +10900,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="79" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B51" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D51" s="56">
         <v>1</v>
@@ -10895,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="80" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -10934,7 +10962,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="G1" s="24"/>
     </row>
@@ -10943,7 +10971,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G2" s="24"/>
     </row>
@@ -11008,7 +11036,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="G10" s="22"/>
     </row>
@@ -11039,22 +11067,22 @@
     </row>
     <row r="14" spans="1:7" ht="16">
       <c r="A14" s="30" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>420</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>301</v>
@@ -11092,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11111,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -11119,7 +11147,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C19" s="62">
         <v>1</v>
@@ -11132,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11140,7 +11168,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C20" s="62">
         <v>1</v>
@@ -11153,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -11161,7 +11189,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C21" s="62">
         <v>1</v>
@@ -11174,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -11182,7 +11210,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C22" s="62">
         <v>2</v>
@@ -11197,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -11205,7 +11233,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C23" s="62">
         <v>2</v>
@@ -11220,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -11228,7 +11256,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C24" s="62">
         <v>2</v>
@@ -11243,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -11251,7 +11279,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C25" s="62">
         <v>2</v>
@@ -11266,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -11274,7 +11302,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="C26" s="62">
         <v>2</v>
@@ -11289,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="59" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -11297,7 +11325,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C27" s="62">
         <v>2</v>
@@ -11312,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -11320,7 +11348,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="C28" s="62">
         <v>2</v>
@@ -11335,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -11343,7 +11371,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C29" s="62">
         <v>1</v>
@@ -11356,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -11370,7 +11398,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E22"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11389,7 +11417,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -11400,7 +11428,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -11433,7 +11461,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -11480,7 +11508,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -11509,7 +11537,7 @@
         <v>297</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -11517,19 +11545,19 @@
     </row>
     <row r="14" spans="1:6" ht="16">
       <c r="A14" s="92" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11548,16 +11576,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="59" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E17" s="59">
         <v>1</v>
@@ -11565,13 +11593,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="59" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="B18" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -11579,16 +11607,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="E19" s="59">
         <v>1</v>
@@ -11596,13 +11624,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B20" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11610,13 +11638,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B21" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -11624,16 +11652,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -11760,7 +11788,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="I1" s="85"/>
     </row>
@@ -11769,7 +11797,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -11814,7 +11842,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
@@ -11881,7 +11909,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
@@ -11934,10 +11962,10 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="91" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>301</v>
@@ -11946,87 +11974,87 @@
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="91"/>
       <c r="B15" s="91" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="84" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17" s="80" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="80" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="80" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="84" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21" s="80" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22" s="80" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -12064,7 +12092,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="D1" s="98"/>
     </row>
@@ -12073,7 +12101,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D2" s="98"/>
     </row>
@@ -12100,7 +12128,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D5" s="98"/>
     </row>
@@ -12137,7 +12165,7 @@
         <v>292</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D10" s="98"/>
     </row>
@@ -12167,31 +12195,31 @@
         <v>353</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="D14" s="104" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="G14" s="104" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="H14" s="104" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="I14" s="104" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="J14" s="104" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="K14" s="104"/>
     </row>
@@ -12226,19 +12254,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D17" s="97">
         <v>371</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="H17" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -12246,19 +12274,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D18" s="97">
         <v>371</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="H18" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -12266,19 +12294,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D19" s="97">
         <v>371</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="H19" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -12286,19 +12314,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="D20" s="97">
         <v>371</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="H20" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -12306,19 +12334,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="D21" s="97">
         <v>313</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="H21" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -12326,19 +12354,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D22" s="97">
         <v>313</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="H22" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -12346,19 +12374,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D23" s="97">
         <v>313</v>
       </c>
       <c r="F23" s="97" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="H23" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -12366,19 +12394,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="D24" s="97">
         <v>712</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -12386,19 +12414,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D25" s="97">
         <v>712</v>
       </c>
       <c r="F25" s="97" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="H25" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -12406,19 +12434,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D26" s="97">
         <v>712</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="H26" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -12426,19 +12454,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D27" s="97">
         <v>316</v>
       </c>
       <c r="F27" s="97" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="H27" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -12446,19 +12474,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D28" s="97">
         <v>316</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="H28" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -12466,19 +12494,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="D29" s="97">
         <v>316</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="H29" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -12486,19 +12514,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="D30" s="97">
         <v>321</v>
       </c>
       <c r="F30" s="97" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="H30" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -12506,19 +12534,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D31" s="97">
         <v>321</v>
       </c>
       <c r="F31" s="97" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="H31" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -12526,19 +12554,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D32" s="97">
         <v>321</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="H32" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -12546,19 +12574,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D33" s="106">
         <v>833</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="H33" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -12591,7 +12619,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C1" s="98"/>
     </row>
@@ -12696,10 +12724,10 @@
         <v>350</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>301</v>
@@ -12707,10 +12735,10 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="108" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="B15" s="108" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="108" t="s">
@@ -12720,7 +12748,7 @@
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="109"/>
       <c r="B16" s="109" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C16" s="109"/>
       <c r="D16" s="109" t="s">
@@ -12735,10 +12763,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="106" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="D17" s="106" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12749,10 +12777,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="D18" s="106" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12763,10 +12791,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D19" s="106" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -12777,10 +12805,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12791,10 +12819,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="D21" s="106" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12805,10 +12833,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D22" s="106" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
@@ -12819,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="106" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12833,10 +12861,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D24" s="106" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12847,10 +12875,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="106" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12861,10 +12889,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14411,7 +14439,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="C24" s="66">
         <v>1</v>
@@ -14420,7 +14448,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="64">
@@ -14428,7 +14456,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="C25" s="117">
         <v>0</v>
@@ -14437,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="80">
@@ -14445,7 +14473,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C26" s="117">
         <v>0</v>
@@ -14454,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -14718,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -14732,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="114" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -14746,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="114" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14760,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="114" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -14774,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -15537,10 +15565,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16703,6 +16731,30 @@
         <v>374</v>
       </c>
     </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="47">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -16712,10 +16764,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -18162,6 +18214,42 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="51" t="s">
+        <v>779</v>
+      </c>
+      <c r="B43" s="46">
+        <v>128</v>
+      </c>
+      <c r="C43" s="45">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18184,7 +18272,7 @@
         <v>279</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -18192,7 +18280,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -18216,7 +18304,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -18248,7 +18336,7 @@
         <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -18276,7 +18364,7 @@
         <v>293</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D019F-36B1-EF42-94D7-6E8AB28EAE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A888EFD2-FD10-1D44-8066-370E01B23225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1600" windowWidth="31760" windowHeight="17460" tabRatio="991" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="31480" windowHeight="14400" tabRatio="991" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -3096,29 +3096,6 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3136,6 +3113,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4175,22 +4175,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4200,66 +4200,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="127">
         <v>2</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="127"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4277,325 +4277,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="133"/>
+      <c r="I13" s="131"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="130"/>
+      <c r="I14" s="132"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="130" t="s">
+      <c r="H15" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="130"/>
+      <c r="I15" s="132"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="130" t="s">
+      <c r="H16" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="130"/>
+      <c r="I16" s="132"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="130"/>
+      <c r="I17" s="132"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="130" t="s">
+      <c r="H18" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="130"/>
+      <c r="I18" s="132"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="130"/>
+      <c r="I19" s="132"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="130"/>
+      <c r="I20" s="132"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="130"/>
+      <c r="I21" s="132"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="130"/>
+      <c r="I22" s="132"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="130"/>
+      <c r="I23" s="132"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="130" t="s">
+      <c r="H24" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="130"/>
+      <c r="I24" s="132"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="128" t="s">
+      <c r="H25" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="128"/>
+      <c r="I25" s="134"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="128" t="s">
+      <c r="H26" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="128"/>
+      <c r="I26" s="134"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="128" t="s">
+      <c r="H27" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="128"/>
+      <c r="I27" s="134"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="128" t="s">
+      <c r="H28" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="134"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="128" t="s">
+      <c r="H29" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="134"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4608,512 +4608,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="128" t="s">
+      <c r="H31" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="128"/>
+      <c r="I31" s="134"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="128" t="s">
+      <c r="H32" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="128"/>
+      <c r="I32" s="134"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="129" t="s">
+      <c r="C33" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="129" t="s">
+      <c r="H33" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="129"/>
+      <c r="I33" s="136"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="129" t="s">
+      <c r="H34" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="129"/>
+      <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="130" t="s">
+      <c r="C35" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="130" t="s">
+      <c r="H35" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="130"/>
+      <c r="I35" s="132"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="138"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="138"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="138"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="138"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5130,6 +5031,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5770,7 +5770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -14112,7 +14112,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14817,10 +14817,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15555,6 +15555,29 @@
       </c>
       <c r="G41">
         <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>26</v>
+      </c>
+      <c r="B42" s="37">
+        <v>7</v>
+      </c>
+      <c r="C42" s="37">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A888EFD2-FD10-1D44-8066-370E01B23225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E4857-923F-E940-8C18-17541B96F439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="460" windowWidth="31480" windowHeight="14400" tabRatio="991" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="31480" windowHeight="14400" tabRatio="991" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -3096,6 +3096,29 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3113,29 +3136,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4175,22 +4175,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4200,66 +4200,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="127">
+      <c r="H8" s="136">
         <v>2</v>
       </c>
-      <c r="I8" s="127"/>
+      <c r="I8" s="136"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4277,325 +4277,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="131" t="s">
+      <c r="H13" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="131"/>
+      <c r="I13" s="133"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="132" t="s">
+      <c r="H14" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="132"/>
+      <c r="I14" s="130"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="132" t="s">
+      <c r="H15" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="132"/>
+      <c r="I15" s="130"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="132" t="s">
+      <c r="H16" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="132"/>
+      <c r="I16" s="130"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="132" t="s">
+      <c r="H17" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="132"/>
+      <c r="I17" s="130"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="132" t="s">
+      <c r="H18" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="132"/>
+      <c r="I18" s="130"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="132" t="s">
+      <c r="H19" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="132"/>
+      <c r="I19" s="130"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="132" t="s">
+      <c r="H20" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="132"/>
+      <c r="I20" s="130"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="132" t="s">
+      <c r="H21" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="132"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="132" t="s">
+      <c r="H22" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="132"/>
+      <c r="I22" s="130"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="132" t="s">
+      <c r="H23" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="132"/>
+      <c r="I23" s="130"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="132" t="s">
+      <c r="C24" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="132" t="s">
+      <c r="H24" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="132"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="134" t="s">
+      <c r="H25" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="134"/>
+      <c r="I25" s="128"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="C26" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="134" t="s">
+      <c r="H26" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="134"/>
+      <c r="I26" s="128"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="134" t="s">
+      <c r="H27" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="134"/>
+      <c r="I27" s="128"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="134" t="s">
+      <c r="H28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="134"/>
+      <c r="I28" s="128"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="134" t="s">
+      <c r="H29" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="134"/>
+      <c r="I29" s="128"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="134" t="s">
+      <c r="C30" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4608,413 +4608,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="134" t="s">
+      <c r="C31" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="134" t="s">
+      <c r="H31" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="134"/>
+      <c r="I31" s="128"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="134" t="s">
+      <c r="H32" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="134"/>
+      <c r="I32" s="128"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="136" t="s">
+      <c r="H33" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="136"/>
+      <c r="I33" s="129"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="136" t="s">
+      <c r="H34" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="136"/>
+      <c r="I34" s="129"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="132" t="s">
+      <c r="C35" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="132" t="s">
+      <c r="H35" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="132"/>
+      <c r="I35" s="130"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="138"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="138"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="137"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5031,105 +5130,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10941,8 +10941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11239,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="61">
         <v>7</v>
@@ -11262,7 +11262,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="59">
         <v>8</v>
@@ -11285,7 +11285,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="59">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="61">
         <v>11</v>
@@ -11354,7 +11354,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="61">
         <v>12</v>
@@ -14819,7 +14819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+    <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>

--- a/banks/surety/catalogs/catalogs_MCH_surety.xlsx
+++ b/banks/surety/catalogs/catalogs_MCH_surety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E4857-923F-E940-8C18-17541B96F439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D63D2-A0BA-7647-BDC7-3EE3FEA0D631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="460" windowWidth="31480" windowHeight="14400" tabRatio="991" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="31480" windowHeight="14400" tabRatio="991" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,17 @@
     <sheet name="DateIntervalLimits" sheetId="22" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="23" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -46,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="802">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2428,6 +2437,30 @@
   </si>
   <si>
     <t>my 9 Month CD</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brokered Money Market </t>
+  </si>
+  <si>
+    <t>Brokered Money Market V2</t>
+  </si>
+  <si>
+    <t>Commercial Money Market PF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my Brokered Money Market </t>
+  </si>
+  <si>
+    <t>my Brokered Money Market V2</t>
+  </si>
+  <si>
+    <t>my Commercial Money Market PF2</t>
   </si>
 </sst>
 </file>
@@ -3096,29 +3129,6 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3136,6 +3146,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4175,22 +4208,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4200,66 +4233,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="127">
         <v>2</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="127"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4277,325 +4310,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="133"/>
+      <c r="I13" s="131"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="130"/>
+      <c r="I14" s="132"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="130" t="s">
+      <c r="H15" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="130"/>
+      <c r="I15" s="132"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="130" t="s">
+      <c r="H16" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="130"/>
+      <c r="I16" s="132"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="130"/>
+      <c r="I17" s="132"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="130" t="s">
+      <c r="H18" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="130"/>
+      <c r="I18" s="132"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="130"/>
+      <c r="I19" s="132"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="130"/>
+      <c r="I20" s="132"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="130"/>
+      <c r="I21" s="132"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="130"/>
+      <c r="I22" s="132"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="130"/>
+      <c r="I23" s="132"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="130" t="s">
+      <c r="H24" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="130"/>
+      <c r="I24" s="132"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="128" t="s">
+      <c r="H25" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="128"/>
+      <c r="I25" s="134"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="128" t="s">
+      <c r="H26" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="128"/>
+      <c r="I26" s="134"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="128" t="s">
+      <c r="H27" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="128"/>
+      <c r="I27" s="134"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="128" t="s">
+      <c r="H28" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="134"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="128" t="s">
+      <c r="H29" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="134"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4608,512 +4641,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="128" t="s">
+      <c r="H31" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="128"/>
+      <c r="I31" s="134"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="128" t="s">
+      <c r="H32" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="128"/>
+      <c r="I32" s="134"/>
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="129" t="s">
+      <c r="C33" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="129" t="s">
+      <c r="H33" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="129"/>
+      <c r="I33" s="136"/>
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="129" t="s">
+      <c r="H34" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="129"/>
+      <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="130" t="s">
+      <c r="C35" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
       <c r="G35" s="10">
         <v>43370</v>
       </c>
-      <c r="H35" s="130" t="s">
+      <c r="H35" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="130"/>
+      <c r="I35" s="132"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="138"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="138"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="138"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="138"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5130,6 +5064,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5412,10 +5445,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5760,6 +5793,30 @@
         <v>128</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="45">
+        <v>0</v>
+      </c>
+      <c r="B44" s="47">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="45">
+        <v>0</v>
+      </c>
+      <c r="B46" s="47">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5770,7 +5827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -7421,10 +7478,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7978,6 +8035,39 @@
         <v>791</v>
       </c>
     </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="47">
+        <v>129</v>
+      </c>
+      <c r="B45" s="40">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="47">
+        <v>130</v>
+      </c>
+      <c r="B46" s="40">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="47">
+        <v>131</v>
+      </c>
+      <c r="B47" s="40">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7988,8 +8078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9202,7 +9292,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9458,10 +9548,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10000,6 +10090,86 @@
         <v>64</v>
       </c>
       <c r="B46" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="47">
+        <v>129</v>
+      </c>
+      <c r="B47" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="47">
+        <v>130</v>
+      </c>
+      <c r="B48" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="47">
+        <v>131</v>
+      </c>
+      <c r="B49" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>150</v>
+      </c>
+      <c r="B50" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>151</v>
+      </c>
+      <c r="B51" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>152</v>
+      </c>
+      <c r="B52" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>153</v>
+      </c>
+      <c r="B53" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>154</v>
+      </c>
+      <c r="B54" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>155</v>
+      </c>
+      <c r="B55" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>156</v>
+      </c>
+      <c r="B56" s="46">
         <v>1</v>
       </c>
     </row>
@@ -10941,7 +11111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -15588,10 +15758,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16778,19 +16948,79 @@
         <v>396</v>
       </c>
     </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="47">
+        <v>129</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>796</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="47">
+        <v>130</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>797</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="47">
+        <v>131</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>798</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -18166,8 +18396,8 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="51">
-        <v>1000000001</v>
+      <c r="A41" s="51" t="s">
+        <v>794</v>
       </c>
       <c r="B41" s="46">
         <v>126</v>
@@ -18202,8 +18432,8 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="51">
-        <v>1000000002</v>
+      <c r="A42" s="51" t="s">
+        <v>795</v>
       </c>
       <c r="B42" s="46">
         <v>127</v>
@@ -18273,9 +18503,51 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>122</v>
+      </c>
+      <c r="B44" s="46">
+        <v>129</v>
+      </c>
+      <c r="C44" s="45">
+        <v>1</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>123</v>
+      </c>
+      <c r="B45" s="46">
+        <v>130</v>
+      </c>
+      <c r="C45" s="45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46">
+        <v>124</v>
+      </c>
+      <c r="B46" s="46">
+        <v>131</v>
+      </c>
+      <c r="C46" s="45">
+        <v>1</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
